--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.89</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.56</t>
+          <t>45.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.96</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.54</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.13</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1186,182 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1260,7 +1261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,17 +1272,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1291,14 +1312,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.56</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1307,14 +1350,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.54</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1323,14 +1388,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -1339,14 +1426,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.13</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1355,13 +1464,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2001,7 +2002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2012,17 +2013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2032,14 +2053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.23</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.0108</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2048,14 +2091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.56</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2912</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2064,14 +2129,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.54</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2080,14 +2167,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2096,14 +2205,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.13</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2112,13 +2243,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>27.57</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>16.23</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>3.56</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +2570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2204,7 +2809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2405,138 +3010,6 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0869</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2601,36 +3074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.87</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.96</t>
+          <t>83.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3577</t>
+          <t>0.0869</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2639,36 +3112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41.56</t>
+          <t>86.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7748</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2677,6 +3150,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01378-中国宏桥.xlsx
+++ b/数据整理/stocks/港股/01378-中国宏桥.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>20.69</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>27.57</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>16.23</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>3.56</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>4.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -616,7 +633,1183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3334</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016742</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信澳中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +2397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1830,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2570,7 +3763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2809,7 +4002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3010,138 +4203,6 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0869</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3206,36 +4267,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.87</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.96</t>
+          <t>83.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3577</t>
+          <t>0.0869</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3244,36 +4305,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41.56</t>
+          <t>86.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7748</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3287,90 +4348,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>45.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>72.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>2.3577</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>